--- a/Top_down_pathways.xlsx
+++ b/Top_down_pathways.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="253" documentId="13_ncr:1_{91466259-FE1C-487A-BF50-B5736E666E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{248DB108-56BD-4136-9FB5-FE8FB3F0D5E5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{61193AAA-0CBB-4A0D-AF10-4E2372C3EC01}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="2" xr2:uid="{61193AAA-0CBB-4A0D-AF10-4E2372C3EC01}"/>
   </bookViews>
   <sheets>
     <sheet name="Embodied_results" sheetId="5" r:id="rId1"/>
@@ -1029,20 +1029,20 @@
       <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="3" bestFit="1"/>
-    <col min="6" max="6" width="5.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="5.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="3" bestFit="1"/>
+    <col min="6" max="6" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5.28515625" style="3" customWidth="1"/>
     <col min="9" max="9" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.5546875" style="3"/>
+    <col min="10" max="16384" width="11.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>3.3557948258720001</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>18.123740938081497</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>3.5164471695746853</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>1.6975103901427286</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>2.4649844201418856</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>7</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>1.7591852178300393</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>1.134946905194681</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>5.6828793732293166</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>7</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>0.65831468340210642</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>7</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>3.7930905595880899</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>7</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>12.433958922004324</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>7</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>2.8582989999550139</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>7</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>1.4698489855539267</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>7</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>0.49614029346785748</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>7</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>7.1046103940140035E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>7</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>6.0618943883270493</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>7</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>5.1544418954486986</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>7</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>0.47953279453563857</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>7</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>1.1047530236456826</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>7</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>1.5880795635045193</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>7</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>8.6668707666248785</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>7</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>1.6756088967823584</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>7</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>0.80887423440167139</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>7</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>0.94971222370048369</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>7</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>0.6173590328822075</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>7</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>0.51006247668603155</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>7</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>3.2232645457539713</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>7</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>0.31369103165694601</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
         <v>7</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>1.8074311887687775</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
         <v>7</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>5.9248585823220985</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>7</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>1.3619972099760043</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>7</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>0.70039216241618396</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
         <v>7</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>0.38384439960266442</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>7</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>2.4932538981106422E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>7</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>2.9478574221688478</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>7</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>2.4561235478496291</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
         <v>7</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>0.18475498381021591</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
         <v>7</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>0.52642167105038906</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
         <v>7</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>0.5140107900955162</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="34" t="s">
         <v>7</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>2.824813000499022</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="34" t="s">
         <v>7</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>0.57019257014198876</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="34" t="s">
         <v>7</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>0.2752516291365984</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="34" t="s">
         <v>7</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>4.7894091948688849E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="34" t="s">
         <v>7</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>8.5405305099900491E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="34" t="s">
         <v>7</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>0.13013760194852975</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="34" t="s">
         <v>7</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>3.2232645457539713</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="34" t="s">
         <v>7</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>0.10674584977105095</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="34" t="s">
         <v>7</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>0.61505034788122159</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="34" t="s">
         <v>7</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>2.0161687785672218</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="34" t="s">
         <v>7</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>0.46347372061208802</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="34" t="s">
         <v>7</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>0.23833628954958999</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="34" t="s">
         <v>7</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>8.4671075879910615E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="34" t="s">
         <v>7</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>3.4491616469193879E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="34" t="s">
         <v>7</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>0.99010573455836814</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="34" t="s">
         <v>7</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>0.83579372311995037</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="34" t="s">
         <v>7</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>9.3172141642094506E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="36" t="s">
         <v>7</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>0.17913591063586323</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="43" t="s">
         <v>7</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>4.3098195617924662E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="45" t="s">
         <v>7</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>0.20469887039537613</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="45" t="s">
         <v>7</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>4.1938796004054008E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="45" t="s">
         <v>7</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>2.0245304005397202E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="45" t="s">
         <v>7</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>3.1363732977286919E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="45" t="s">
         <v>7</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>1.7196522579285833E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="45" t="s">
         <v>7</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>2.5575738180805912E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="45" t="s">
         <v>7</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>8.2730911548961353E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="45" t="s">
         <v>7</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>7.8513692605862873E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="45" t="s">
         <v>7</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>4.5238174649644587E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="45" t="s">
         <v>7</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>0.1482932180140781</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="45" t="s">
         <v>7</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>3.4089412664830003E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="45" t="s">
         <v>7</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>1.753010746052746E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="45" t="s">
         <v>7</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>9.0057164072119953E-5</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="45" t="s">
         <v>7</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>6.9449533692872548E-5</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="45" t="s">
         <v>7</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>8.6178135117007726E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="45" t="s">
         <v>7</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>6.1474288320992568E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="45" t="s">
         <v>7</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>6.1014335014751355E-5</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="45" t="s">
         <v>7</v>
       </c>
@@ -3516,19 +3516,19 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -3596,7 +3596,7 @@
       </c>
       <c r="L2" s="67"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="L3" s="67"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F5" s="68"/>
       <c r="J5" s="70"/>
       <c r="L5" s="69"/>
@@ -3650,23 +3650,23 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="16" width="5" customWidth="1"/>
     <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
     <col min="18" max="26" width="5" customWidth="1"/>
-    <col min="27" max="27" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="36" width="5.44140625" customWidth="1"/>
-    <col min="37" max="37" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="36" width="5.42578125" customWidth="1"/>
+    <col min="37" max="37" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>5.0595007315272085</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>1.013418735730464</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>34.672136478938981</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>5.0595007315272085</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>1.013418735730464</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>7</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>13.213217341010608</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>5.0595007315272085</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>1.013418735730464</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>7</v>
       </c>
@@ -4316,11 +4316,11 @@
         <v>0.81135396951038663</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AL16" s="66"/>
       <c r="AM16" s="66"/>
     </row>
-    <row r="17" spans="38:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="38:39" x14ac:dyDescent="0.25">
       <c r="AL17" s="66"/>
       <c r="AM17" s="66"/>
     </row>
@@ -4343,12 +4343,12 @@
       <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="71" t="s">
         <v>56</v>
@@ -4384,7 +4384,7 @@
       <c r="W1" s="72"/>
       <c r="X1" s="73"/>
     </row>
-    <row r="3" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6">
         <v>2010</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>53</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>2.7804114452856731E-112</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>2.8098217807580591E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>1.3172756575205179E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>8.1819303766782148E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>7.7829280369718312E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>-9.0775203202717449</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -4799,7 +4799,7 @@
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -4831,7 +4831,7 @@
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -4863,7 +4863,7 @@
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -4883,7 +4883,7 @@
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>40</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>-2.6448677279056081E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>6.8289517667184454E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>1.0014214754595838E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>4.0785739341177969E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -5139,7 +5139,7 @@
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>41</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>-0.2353655186512576</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>42</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>6.6942229518449026E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>2.6189270688179656E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>8.7112478848989205E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>8.9265992631358856E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>-2.1554765988728253</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>43</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>5.8509278004409457E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>44</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>8.8175871656898233E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>5.5686692555648613E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>10</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>5.4050200819571965E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>23</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>8.394194807867722E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>5.6232076873561389E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>2.6494880246650542E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>0.11852170587110346</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>0.20480051392363172</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>0.14085873696126788</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>51</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>4.1404262843618658E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>5.3497901703846142E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>27</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>1.4743540847127024E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -6258,16 +6258,16 @@
       <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>47.92</v>
       </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>-66</v>
       </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>4.58</v>
       </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
       <c r="AI11" s="64"/>
       <c r="AJ11" s="64"/>
       <c r="AK11" s="64"/>

--- a/Top_down_pathways.xlsx
+++ b/Top_down_pathways.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cstbgroup-my.sharepoint.com/personal/marin_pellan_cstb_fr/Documents/Thèse stratégie carbone/Articles/Journal_papers/Carbon_budgets_Building_Environment/French_WLC_budgets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="673" documentId="13_ncr:1_{91466259-FE1C-487A-BF50-B5736E666E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03BF3C5D-97FE-40A9-B8D0-B6ACECE12F58}"/>
+  <xr:revisionPtr revIDLastSave="710" documentId="13_ncr:1_{91466259-FE1C-487A-BF50-B5736E666E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F15B348F-781A-4D89-B1F1-C2F11AF5C0EF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="6" activeTab="6" xr2:uid="{61193AAA-0CBB-4A0D-AF10-4E2372C3EC01}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="6" activeTab="7" xr2:uid="{61193AAA-0CBB-4A0D-AF10-4E2372C3EC01}"/>
   </bookViews>
   <sheets>
     <sheet name="Embodied_results_OLD" sheetId="5" state="hidden" r:id="rId1"/>
@@ -873,7 +873,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1387,6 +1387,8 @@
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4263,32 +4265,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="213" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="212" t="s">
+      <c r="G1" s="214" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="212"/>
-      <c r="I1" s="212"/>
-      <c r="J1" s="212"/>
-      <c r="L1" s="212" t="s">
+      <c r="H1" s="214"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="214"/>
+      <c r="L1" s="214" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="212"/>
-      <c r="N1" s="212"/>
-      <c r="O1" s="212"/>
-      <c r="Q1" s="212" t="s">
+      <c r="M1" s="214"/>
+      <c r="N1" s="214"/>
+      <c r="O1" s="214"/>
+      <c r="Q1" s="214" t="s">
         <v>84</v>
       </c>
-      <c r="R1" s="212"/>
-      <c r="S1" s="212"/>
-      <c r="T1" s="212"/>
+      <c r="R1" s="214"/>
+      <c r="S1" s="214"/>
+      <c r="T1" s="214"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="71"/>
@@ -8902,39 +8904,39 @@
   <sheetData>
     <row r="1" spans="1:24" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
-      <c r="B1" s="208" t="s">
+      <c r="B1" s="210" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="209"/>
-      <c r="D1" s="210"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="212"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="208" t="s">
+      <c r="G1" s="210" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="209"/>
-      <c r="I1" s="210"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="212"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
-      <c r="L1" s="208" t="s">
+      <c r="L1" s="210" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="209"/>
-      <c r="N1" s="210"/>
+      <c r="M1" s="211"/>
+      <c r="N1" s="212"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
-      <c r="Q1" s="208" t="s">
+      <c r="Q1" s="210" t="s">
         <v>59</v>
       </c>
-      <c r="R1" s="209"/>
-      <c r="S1" s="210"/>
+      <c r="R1" s="211"/>
+      <c r="S1" s="212"/>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
-      <c r="V1" s="208" t="s">
+      <c r="V1" s="210" t="s">
         <v>60</v>
       </c>
-      <c r="W1" s="209"/>
-      <c r="X1" s="210"/>
+      <c r="W1" s="211"/>
+      <c r="X1" s="212"/>
     </row>
     <row r="3" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
@@ -14321,8 +14323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9FE120B-40E4-45E7-94A0-9EBAAF347C77}">
   <dimension ref="A1:AM17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14334,7 +14336,7 @@
     <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="16" width="5" customWidth="1"/>
-    <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="26" width="5" customWidth="1"/>
     <col min="27" max="27" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="28" max="36" width="5.44140625" customWidth="1"/>
@@ -14973,7 +14975,7 @@
         <f>SUM(Embodied_results!J40:J58)</f>
         <v>44.203477942359605</v>
       </c>
-      <c r="R10" s="52"/>
+      <c r="R10" s="209"/>
       <c r="S10" s="52"/>
       <c r="T10" s="52"/>
       <c r="U10" s="52"/>
@@ -15000,6 +15002,18 @@
         <v>2.1679058066460946</v>
       </c>
     </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="Q13" s="208"/>
+      <c r="AK13" s="208"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="Q14" s="208"/>
+      <c r="AK14" s="208"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="Q15" s="208"/>
+      <c r="AK15" s="208"/>
+    </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="AL16" s="66"/>
       <c r="AM16" s="66"/>
@@ -15015,10 +15029,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5BC2F8-D6F5-4235-BC80-FBA718A0EE59}">
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15035,7 +15049,7 @@
     <col min="14" max="16384" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15075,8 +15089,12 @@
       <c r="M1" s="1">
         <v>2050</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
@@ -15118,8 +15136,11 @@
         <v>2.5467857273992336</v>
       </c>
       <c r="O2" s="207"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" s="207"/>
+      <c r="Q2" s="207"/>
+      <c r="R2" s="207"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
@@ -15161,7 +15182,7 @@
         <v>13.502062861502081</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
@@ -15203,7 +15224,7 @@
         <v>2.443557289087972</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
@@ -15245,7 +15266,7 @@
         <v>1.1063503838967139</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
@@ -15287,7 +15308,7 @@
         <v>2.8712997866897605</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>7</v>
       </c>
@@ -15329,7 +15350,7 @@
         <v>1.5593568465077834</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -15371,7 +15392,7 @@
         <v>0.83516340808090694</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
@@ -15413,7 +15434,7 @@
         <v>4.4771286982506124</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>7</v>
       </c>
@@ -15455,7 +15476,7 @@
         <v>0.45745878313178856</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>7</v>
       </c>
@@ -15497,7 +15518,7 @@
         <v>2.6357950619156587</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>7</v>
       </c>
@@ -15539,7 +15560,7 @@
         <v>8.6402807978937801</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>7</v>
       </c>
@@ -15581,7 +15602,7 @@
         <v>1.9862142153489826</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>7</v>
       </c>
@@ -15623,7 +15644,7 @@
         <v>1.0213889273198637</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>7</v>
       </c>
@@ -15665,7 +15686,7 @@
         <v>3.2441452602674494</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>7</v>
       </c>
@@ -15707,7 +15728,7 @@
         <v>6.2975875123266523E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>7</v>
       </c>
@@ -15749,7 +15770,7 @@
         <v>3.8510003535211204</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>7</v>
       </c>
@@ -15791,7 +15812,7 @@
         <v>3.581789646601595</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>7</v>
       </c>
@@ -15833,7 +15854,7 @@
         <v>0.55857651651269669</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>7</v>
       </c>
@@ -15875,7 +15896,7 @@
         <v>0.76768601187257213</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
         <v>7</v>
       </c>
@@ -15917,8 +15938,11 @@
         <v>1.2162642682012714</v>
       </c>
       <c r="O21" s="207"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P21" s="207"/>
+      <c r="Q21" s="207"/>
+      <c r="R21" s="207"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
         <v>7</v>
       </c>
@@ -15960,7 +15984,7 @@
         <v>3.6796388239080113</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
         <v>7</v>
       </c>
@@ -16002,7 +16026,7 @@
         <v>1.0134916930286617</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
         <v>7</v>
       </c>
@@ -16044,7 +16068,7 @@
         <v>0.4964437681783101</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="s">
         <v>7</v>
       </c>
@@ -16086,7 +16110,7 @@
         <v>1.0498123449701475</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="s">
         <v>7</v>
       </c>
@@ -16128,7 +16152,7 @@
         <v>0.84990807786838352</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="s">
         <v>7</v>
       </c>
@@ -16170,7 +16194,7 @@
         <v>0.40014301833919352</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="s">
         <v>7</v>
       </c>
@@ -16212,7 +16236,7 @@
         <v>1.6284070441975085</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="23" t="s">
         <v>7</v>
       </c>
@@ -16254,7 +16278,7 @@
         <v>0.189735955312966</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
         <v>7</v>
       </c>
@@ -16296,7 +16320,7 @@
         <v>1.0932243789440839</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
         <v>7</v>
       </c>
@@ -16338,7 +16362,7 @@
         <v>3.5836494823367913</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
         <v>7</v>
       </c>
@@ -16380,7 +16404,7 @@
         <v>0.82380372943208846</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="s">
         <v>7</v>
       </c>
@@ -16422,7 +16446,7 @@
         <v>0.42363205389651482</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="23" t="s">
         <v>7</v>
       </c>
@@ -16464,7 +16488,7 @@
         <v>1.5167573660868354</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="23" t="s">
         <v>7</v>
       </c>
@@ -16506,7 +16530,7 @@
         <v>3.4324218409636259E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="23" t="s">
         <v>7</v>
       </c>
@@ -16548,7 +16572,7 @@
         <v>1.7422846657674085</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="23" t="s">
         <v>7</v>
       </c>
@@ -16590,7 +16614,7 @@
         <v>1.4855858175363992</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="23" t="s">
         <v>7</v>
       </c>
@@ -16632,7 +16656,7 @@
         <v>0.20422824720838184</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="25" t="s">
         <v>7</v>
       </c>
@@ -16674,7 +16698,7 @@
         <v>0.31840603834483849</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="43" t="s">
         <v>7</v>
       </c>
@@ -16716,8 +16740,11 @@
         <v>0.13894032755692098</v>
       </c>
       <c r="O40" s="207"/>
-    </row>
-    <row r="41" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P40" s="207"/>
+      <c r="Q40" s="207"/>
+      <c r="R40" s="207"/>
+    </row>
+    <row r="41" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="45" t="s">
         <v>7</v>
       </c>
@@ -16759,7 +16786,7 @@
         <v>0.42562777007296593</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="45" t="s">
         <v>7</v>
       </c>
@@ -16801,7 +16828,7 @@
         <v>0.11659322486899117</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="45" t="s">
         <v>7</v>
       </c>
@@ -16843,7 +16870,7 @@
         <v>6.0357132945106265E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="45" t="s">
         <v>7</v>
       </c>
@@ -16885,7 +16912,7 @@
         <v>-9.6189437444530068E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="45" t="s">
         <v>7</v>
       </c>
@@ -16927,7 +16954,7 @@
         <v>1.1012699214395155E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="45" t="s">
         <v>7</v>
       </c>
@@ -16969,7 +16996,7 @@
         <v>4.0701266568526247E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="45" t="s">
         <v>7</v>
       </c>
@@ -17011,7 +17038,7 @@
         <v>0.14506055490058789</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="45" t="s">
         <v>7</v>
       </c>
@@ -17499,32 +17526,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="213" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="212" t="s">
+      <c r="G1" s="214" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="212"/>
-      <c r="I1" s="212"/>
-      <c r="J1" s="212"/>
-      <c r="L1" s="212" t="s">
+      <c r="H1" s="214"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="214"/>
+      <c r="L1" s="214" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="212"/>
-      <c r="N1" s="212"/>
-      <c r="O1" s="212"/>
-      <c r="Q1" s="212" t="s">
+      <c r="M1" s="214"/>
+      <c r="N1" s="214"/>
+      <c r="O1" s="214"/>
+      <c r="Q1" s="214" t="s">
         <v>84</v>
       </c>
-      <c r="R1" s="212"/>
-      <c r="S1" s="212"/>
-      <c r="T1" s="212"/>
+      <c r="R1" s="214"/>
+      <c r="S1" s="214"/>
+      <c r="T1" s="214"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="71"/>
